--- a/cp1/chyrkov_fb-05_cp1/letters_without_space.xlsx
+++ b/cp1/chyrkov_fb-05_cp1/letters_without_space.xlsx
@@ -16,28 +16,181 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
-    <t>{'в':</t>
+    <t>'о':</t>
+  </si>
+  <si>
+    <t>0.11180197941461549,</t>
+  </si>
+  <si>
+    <t>'е':</t>
+  </si>
+  <si>
+    <t>0.0878692170916276,</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>'а':</t>
+  </si>
+  <si>
+    <t>0.08120083607519402,</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0.11385411781383048</t>
+  </si>
+  <si>
+    <t>'н':</t>
+  </si>
+  <si>
+    <t>0.06694096262937296,</t>
+  </si>
+  <si>
+    <t>'и':</t>
+  </si>
+  <si>
+    <t>0.06371007268403435,</t>
+  </si>
+  <si>
+    <t>'т':</t>
+  </si>
+  <si>
+    <t>0.062962792016405,</t>
+  </si>
+  <si>
+    <t>'с':</t>
+  </si>
+  <si>
+    <t>0.053230560262691136,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'в':</t>
   </si>
   <si>
     <t>0.04650943002266019,</t>
   </si>
   <si>
+    <t>'л':</t>
+  </si>
+  <si>
+    <t>0.046441295608846925,</t>
+  </si>
+  <si>
+    <t>'р':</t>
+  </si>
+  <si>
+    <t>0.03944103406061325,</t>
+  </si>
+  <si>
     <t>'к':</t>
   </si>
   <si>
     <t>0.03276166362259689,</t>
   </si>
   <si>
-    <t>'о':</t>
-  </si>
-  <si>
-    <t>0.11180197941461549,</t>
-  </si>
-  <si>
-    <t>'н':</t>
-  </si>
-  <si>
-    <t>0.06694096262937296,</t>
+    <t>'д':</t>
+  </si>
+  <si>
+    <t>0.031100063079279885,</t>
+  </si>
+  <si>
+    <t>'м':</t>
+  </si>
+  <si>
+    <t>0.030724224861148657,</t>
+  </si>
+  <si>
+    <t>'п':</t>
+  </si>
+  <si>
+    <t>0.027192224764441747,</t>
+  </si>
+  <si>
+    <t>'у':</t>
+  </si>
+  <si>
+    <t>0.026172406441559354,</t>
+  </si>
+  <si>
+    <t>'я':</t>
+  </si>
+  <si>
+    <t>0.023939355975937562,</t>
+  </si>
+  <si>
+    <t>'ь':</t>
+  </si>
+  <si>
+    <t>0.022611833848737207,</t>
+  </si>
+  <si>
+    <t>'г':</t>
+  </si>
+  <si>
+    <t>0.01895675223030311,</t>
+  </si>
+  <si>
+    <t>'ч':</t>
+  </si>
+  <si>
+    <t>0.018424864225696346,</t>
+  </si>
+  <si>
+    <t>'ы':</t>
+  </si>
+  <si>
+    <t>0.017396254365547724,</t>
+  </si>
+  <si>
+    <t>'з':</t>
+  </si>
+  <si>
+    <t>0.017288558034036436,</t>
+  </si>
+  <si>
+    <t>'б':</t>
+  </si>
+  <si>
+    <t>0.01670831657446542,</t>
+  </si>
+  <si>
+    <t>'ж':</t>
+  </si>
+  <si>
+    <t>0.01155427785213953,</t>
+  </si>
+  <si>
+    <t>'й':</t>
+  </si>
+  <si>
+    <t>0.010358628783932587,</t>
+  </si>
+  <si>
+    <t>'ш':</t>
+  </si>
+  <si>
+    <t>0.008332179444067141,</t>
+  </si>
+  <si>
+    <t>'х':</t>
+  </si>
+  <si>
+    <t>0.007070593846363491,</t>
+  </si>
+  <si>
+    <t>'ю':</t>
+  </si>
+  <si>
+    <t>0.005947474960602924,</t>
+  </si>
+  <si>
+    <t>'э':</t>
+  </si>
+  <si>
+    <t>0.003549583171239365,</t>
   </si>
   <si>
     <t>'ц':</t>
@@ -46,175 +199,22 @@
     <t>0.0032572645571372996,</t>
   </si>
   <si>
-    <t>'е':</t>
-  </si>
-  <si>
-    <t>0.0878692170916276,</t>
-  </si>
-  <si>
-    <t>'я':</t>
-  </si>
-  <si>
-    <t>0.023939355975937562,</t>
-  </si>
-  <si>
-    <t>'б':</t>
-  </si>
-  <si>
-    <t>0.01670831657446542,</t>
-  </si>
-  <si>
-    <t>'р':</t>
-  </si>
-  <si>
-    <t>0.03944103406061325,</t>
-  </si>
-  <si>
-    <t>'т':</t>
-  </si>
-  <si>
-    <t>0.062962792016405,</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>'п':</t>
-  </si>
-  <si>
-    <t>0.027192224764441747,</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>0.11385411781383048</t>
-  </si>
-  <si>
-    <t>'л':</t>
-  </si>
-  <si>
-    <t>0.046441295608846925,</t>
-  </si>
-  <si>
-    <t>'ь':</t>
-  </si>
-  <si>
-    <t>0.022611833848737207,</t>
-  </si>
-  <si>
-    <t>'ч':</t>
-  </si>
-  <si>
-    <t>0.018424864225696346,</t>
-  </si>
-  <si>
-    <t>'а':</t>
-  </si>
-  <si>
-    <t>0.08120083607519402,</t>
-  </si>
-  <si>
-    <t>'с':</t>
-  </si>
-  <si>
-    <t>0.053230560262691136,</t>
-  </si>
-  <si>
-    <t>'д':</t>
-  </si>
-  <si>
-    <t>0.031100063079279885,</t>
-  </si>
-  <si>
-    <t>'у':</t>
-  </si>
-  <si>
-    <t>0.026172406441559354,</t>
-  </si>
-  <si>
-    <t>'з':</t>
-  </si>
-  <si>
-    <t>0.017288558034036436,</t>
-  </si>
-  <si>
-    <t>'г':</t>
-  </si>
-  <si>
-    <t>0.01895675223030311,</t>
-  </si>
-  <si>
-    <t>'ш':</t>
-  </si>
-  <si>
-    <t>0.008332179444067141,</t>
-  </si>
-  <si>
-    <t>'й':</t>
-  </si>
-  <si>
-    <t>0.010358628783932587,</t>
-  </si>
-  <si>
-    <t>'ж':</t>
-  </si>
-  <si>
-    <t>0.01155427785213953,</t>
-  </si>
-  <si>
-    <t>'и':</t>
-  </si>
-  <si>
-    <t>0.06371007268403435,</t>
-  </si>
-  <si>
-    <t>'х':</t>
-  </si>
-  <si>
-    <t>0.007070593846363491,</t>
-  </si>
-  <si>
-    <t>'ы':</t>
-  </si>
-  <si>
-    <t>0.017396254365547724,</t>
-  </si>
-  <si>
-    <t>'м':</t>
-  </si>
-  <si>
-    <t>0.030724224861148657,</t>
-  </si>
-  <si>
     <t>'щ':</t>
   </si>
   <si>
     <t>0.002951758637135893,</t>
   </si>
   <si>
+    <t>'ф':</t>
+  </si>
+  <si>
+    <t>0.0022088737381396667,</t>
+  </si>
+  <si>
     <t>'ё':</t>
   </si>
   <si>
     <t>0.0011648786877751476,</t>
-  </si>
-  <si>
-    <t>'ю':</t>
-  </si>
-  <si>
-    <t>0.005947474960602924,</t>
-  </si>
-  <si>
-    <t>'ф':</t>
-  </si>
-  <si>
-    <t>0.0022088737381396667,</t>
-  </si>
-  <si>
-    <t>'э':</t>
-  </si>
-  <si>
-    <t>0.003549583171239365,</t>
   </si>
   <si>
     <t>'ъ':</t>
@@ -228,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -242,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,33 +264,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,6 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -311,76 +326,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +395,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,55 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,72 +533,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,19 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,17 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +618,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,15 +678,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -691,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,127 +712,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,15 +1159,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="8" max="8" width="21.7142857142857"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1178,95 +1179,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4.47006907699362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>4470069076993620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1447,6 +1448,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B33">
+    <sortCondition ref="B1" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
